--- a/Assets/KDG/Scripts/GuideLine/GuideLineDB.xlsx
+++ b/Assets/KDG/Scripts/GuideLine/GuideLineDB.xlsx
@@ -62,27 +62,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>비밀번호가 5728이라 적혀있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호가 1234라고 적혀있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가스실에 폭탄을 설치하라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>막힌문이 열렸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>납치된 인질을 구출하라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>정보를 획득했다. 서둘러 탈출하자.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호가 5728이라 적혀있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호가 1234라고 적혀있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>막힌문이 열렸다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>납치된 인질을 구출할 것</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가스실에 폭탄을 설치하라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,7 +437,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -498,7 +498,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -538,7 +538,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -562,7 +562,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -570,7 +570,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">

--- a/Assets/KDG/Scripts/GuideLine/GuideLineDB.xlsx
+++ b/Assets/KDG/Scripts/GuideLine/GuideLineDB.xlsx
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비밀번호가 1234라고 적혀있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>가스실에 폭탄을 설치하라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,6 +79,10 @@
   </si>
   <si>
     <t>정보를 획득했다. 서둘러 탈출하자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호가 8015이라 적혀있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,7 +437,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -498,7 +498,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -538,7 +538,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -570,7 +570,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -578,7 +578,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -586,7 +586,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/KDG/Scripts/GuideLine/GuideLineDB.xlsx
+++ b/Assets/KDG/Scripts/GuideLine/GuideLineDB.xlsx
@@ -35,15 +35,6 @@
     <t xml:space="preserve">아직 사용할 수 없다. </t>
   </si>
   <si>
-    <t>4번 방으로 가보자.</t>
-  </si>
-  <si>
-    <t>서버실로 가보자.</t>
-  </si>
-  <si>
-    <t>CCTV가 꺼졌다.</t>
-  </si>
-  <si>
     <t>열쇠를 획득했다.</t>
   </si>
   <si>
@@ -66,23 +57,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>막힌문이 열렸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>납치된 인질을 구출하라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보를 획득했다. 서둘러 탈출하자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호가 8015이라 적혀있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기실 열쇠를 획득했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버실 열쇠를 획득했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>가스실에 폭탄을 설치하라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>막힌문이 열렸다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>납치된 인질을 구출하라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보를 획득했다. 서둘러 탈출하자.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호가 8015이라 적혀있다.</t>
+    <t>일부 CCTV가 꺼졌다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,7 +440,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -482,7 +485,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -490,7 +493,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -498,7 +501,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -506,7 +509,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -514,7 +517,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -522,7 +525,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -530,7 +533,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -538,7 +541,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -546,7 +549,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -554,7 +557,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -562,7 +565,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -570,7 +573,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -578,7 +581,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -586,7 +589,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/KDG/Scripts/GuideLine/GuideLineDB.xlsx
+++ b/Assets/KDG/Scripts/GuideLine/GuideLineDB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>eventNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,9 +26,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">문이 잠겨있다. </t>
-  </si>
-  <si>
     <t xml:space="preserve">지금은 숨을 수 없다. </t>
   </si>
   <si>
@@ -86,6 +83,14 @@
   </si>
   <si>
     <t>일부 CCTV가 꺼졌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문이 잠겨있다. 주변을 둘러보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호를 뜻하는 것 같다. 주변을 더 둘러보자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -461,7 +466,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -469,7 +474,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -477,7 +482,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -485,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -493,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -501,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -509,7 +514,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -517,7 +522,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -525,7 +530,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -533,7 +538,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -541,7 +546,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -549,7 +554,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -557,7 +562,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -565,7 +570,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -573,7 +578,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -581,7 +586,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -589,7 +594,15 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/KDG/Scripts/GuideLine/GuideLineDB.xlsx
+++ b/Assets/KDG/Scripts/GuideLine/GuideLineDB.xlsx
@@ -86,11 +86,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>문이 잠겨있다. 주변을 둘러보자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호를 뜻하는 것 같다. 주변을 더 둘러보자</t>
+    <t>문이 잠겨있다. 컴퓨터를 만져보자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호를 뜻하는 것 같다. 더 둘러보자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/Assets/KDG/Scripts/GuideLine/GuideLineDB.xlsx
+++ b/Assets/KDG/Scripts/GuideLine/GuideLineDB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>eventNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,10 @@
   </si>
   <si>
     <t>비밀번호를 뜻하는 것 같다. 더 둘러보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟룸 접근 코드를 컴퓨터에서 획득하자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -603,6 +607,14 @@
       </c>
       <c r="B19" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/KDG/Scripts/GuideLine/GuideLineDB.xlsx
+++ b/Assets/KDG/Scripts/GuideLine/GuideLineDB.xlsx
@@ -35,66 +35,67 @@
     <t>열쇠를 획득했다.</t>
   </si>
   <si>
-    <t>비밀번호는 8324인 것 같다.</t>
-  </si>
-  <si>
     <t xml:space="preserve">CCTV 관리실로 가보자. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비밀번호는 9635인 것 같다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>폭탄을 설치했다. 서둘러 탈출하자.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>막힌문이 열렸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>납치된 인질을 구출하라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보를 획득했다. 서둘러 탈출하자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기실 열쇠를 획득했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버실 열쇠를 획득했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가스실에 폭탄을 설치하라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일부 CCTV가 꺼졌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문이 잠겨있다. 컴퓨터를 만져보자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호를 뜻하는 것 같다. 더 둘러보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟룸 접근 코드를 컴퓨터에서 획득하자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호가 8015이라 적혀있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>비밀번호가 5728이라 적혀있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>막힌문이 열렸다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>납치된 인질을 구출하라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보를 획득했다. 서둘러 탈출하자.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호가 8015이라 적혀있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기실 열쇠를 획득했다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버실 열쇠를 획득했다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가스실에 폭탄을 설치하라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일부 CCTV가 꺼졌다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문이 잠겨있다. 컴퓨터를 만져보자.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호를 뜻하는 것 같다. 더 둘러보자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타겟룸 접근 코드를 컴퓨터에서 획득하자</t>
+    <t>타겟룸 접근코드는 8324인 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟룸 접근코드는 9635인 것 같다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +450,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -470,7 +471,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -494,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -502,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -510,7 +511,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -518,7 +519,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -526,7 +527,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -542,7 +543,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -550,7 +551,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -558,7 +559,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -566,7 +567,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -574,7 +575,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -582,7 +583,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -590,7 +591,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -598,7 +599,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -606,7 +607,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -614,7 +615,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/KDG/Scripts/GuideLine/GuideLineDB.xlsx
+++ b/Assets/KDG/Scripts/GuideLine/GuideLineDB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>eventNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>문이 잠겨있다. 컴퓨터를 만져보자.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비밀번호를 뜻하는 것 같다. 더 둘러보자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,6 +92,22 @@
   </si>
   <si>
     <t>타겟룸 접근코드는 9635인 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서재에서 책장에 숨겨진 버튼을 찾아보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선 컴퓨터에 접근해보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문이 잠겨있다. 주변을 더 둘러보자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟을 제거하라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -471,7 +483,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -559,7 +571,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -567,7 +579,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -575,7 +587,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -583,7 +595,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -607,7 +619,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -615,7 +627,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
